--- a/PROGRAMAÇÃO NEOENERGIA.xlsx
+++ b/PROGRAMAÇÃO NEOENERGIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\NEOENERGIA\NEOENERGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF5FAC3-5535-43E7-AC11-229A1421C898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD6E03-65ED-46DD-A8AF-C9E8EA5EEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFFF65E-4DF8-43ED-9181-8CFC5774E7BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFFF65E-4DF8-43ED-9181-8CFC5774E7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMAÇÃO" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
   <dimension ref="A2:BG11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS7" sqref="AS7"/>
+      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1781,12 +1781,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="BE3:BF3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="U3:V3"/>
@@ -1800,6 +1794,12 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="BG8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">

--- a/PROGRAMAÇÃO NEOENERGIA.xlsx
+++ b/PROGRAMAÇÃO NEOENERGIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\NEOENERGIA\NEOENERGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD6E03-65ED-46DD-A8AF-C9E8EA5EEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F945EF-F11E-46F9-9F65-02D5D29207EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFFF65E-4DF8-43ED-9181-8CFC5774E7BC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
   <si>
     <t>PREV.</t>
   </si>
@@ -193,9 +193,6 @@
     <t>PINT-BAR.PREV.TÉRMINO</t>
   </si>
   <si>
-    <t>PINT-BAR.</t>
-  </si>
-  <si>
     <t>INCORPORAÇÃO.PREV.TÉRMINO</t>
   </si>
   <si>
@@ -304,13 +301,13 @@
     <t>SC</t>
   </si>
   <si>
-    <t>BARRINHA (ETAPA 5)-13</t>
-  </si>
-  <si>
     <t>Módulo 13</t>
   </si>
   <si>
     <t>PINT-BAR.PREV.INÍCIO</t>
+  </si>
+  <si>
+    <t>PINT-BAR</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1002,8 @@
   <dimension ref="A2:BG11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U23" sqref="U23"/>
+      <pane xSplit="5" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1487,85 +1484,85 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK7" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AM7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT7" s="12" t="s">
         <v>43</v>
@@ -1600,13 +1597,13 @@
     </row>
     <row r="8" spans="1:59" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -1831,7 +1828,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,10 +1847,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1861,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1869,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,7 +1882,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1901,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,7 +1930,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1941,7 +1938,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1957,7 +1954,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/PROGRAMAÇÃO NEOENERGIA.xlsx
+++ b/PROGRAMAÇÃO NEOENERGIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\NEOENERGIA\NEOENERGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F945EF-F11E-46F9-9F65-02D5D29207EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BD13F1-018E-4027-BE6A-D76332C524C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFFF65E-4DF8-43ED-9181-8CFC5774E7BC}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
   <dimension ref="A2:BG11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY7" sqref="AY7"/>
+      <pane xSplit="5" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF9" sqref="BF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1610,163 +1610,163 @@
       </c>
       <c r="F8" s="21">
         <f>IFERROR(WORKDAY.INTL(G8,(-$G$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45300</v>
+        <v>45369</v>
       </c>
       <c r="G8" s="22">
         <f>IFERROR(WORKDAY(I8,-1),"-")</f>
-        <v>45355</v>
+        <v>45422</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="24">
         <f>IFERROR(WORKDAY.INTL(J8,(-$J$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45356</v>
+        <v>45425</v>
       </c>
       <c r="J8" s="21">
         <f>IFERROR(WORKDAY(X8,-1),"-")</f>
-        <v>45439</v>
+        <v>45506</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24">
         <f>IFERROR(WORKDAY.INTL(M8,(-$M$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45356</v>
+        <v>45425</v>
       </c>
       <c r="M8" s="21">
         <f>IFERROR(WORKDAY(X8,-1),"-")</f>
-        <v>45439</v>
+        <v>45506</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="21">
         <f>IFERROR(WORKDAY(J8,1),"-")</f>
-        <v>45440</v>
+        <v>45509</v>
       </c>
       <c r="P8" s="21">
         <f>IFERROR(WORKDAY.INTL(O8,($P$2-1),,Feriados!A2:A8),"-")</f>
-        <v>45446</v>
+        <v>45513</v>
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="24">
         <f>O8</f>
-        <v>45440</v>
+        <v>45509</v>
       </c>
       <c r="S8" s="21">
         <f>IFERROR(WORKDAY.INTL(R8,($P$2-1),,Feriados!A2:A8),"-")</f>
-        <v>45446</v>
+        <v>45513</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="21">
         <f>IFERROR(WORKDAY(S8,1),"-")</f>
-        <v>45447</v>
+        <v>45516</v>
       </c>
       <c r="V8" s="21">
         <f>IFERROR(WORKDAY.INTL(U8,($V$2-1),,Feriados!A2:A8),"-")</f>
-        <v>45639</v>
+        <v>45708</v>
       </c>
       <c r="W8" s="23"/>
       <c r="X8" s="24">
         <f>IFERROR(WORKDAY.INTL(Y8,(-$Y$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45440</v>
+        <v>45509</v>
       </c>
       <c r="Y8" s="21">
         <f>IFERROR(WORKDAY(AA8,-1),"-")</f>
-        <v>45460</v>
+        <v>45527</v>
       </c>
       <c r="Z8" s="23"/>
       <c r="AA8" s="24">
         <f>IFERROR(WORKDAY.INTL(AD8,(-$AB$2),,Feriados!A2:A8),"-")</f>
-        <v>45461</v>
+        <v>45530</v>
       </c>
       <c r="AB8" s="21">
         <f>IFERROR(WORKDAY(AD8,-1),"-")</f>
-        <v>45481</v>
+        <v>45548</v>
       </c>
       <c r="AC8" s="23"/>
       <c r="AD8" s="24">
         <f>IFERROR(AE8 - $AE$2, "-")</f>
-        <v>45482</v>
+        <v>45549</v>
       </c>
       <c r="AE8" s="21">
         <f>IFERROR(AG8,"-")</f>
-        <v>45602</v>
+        <v>45669</v>
       </c>
       <c r="AF8" s="23"/>
       <c r="AG8" s="24">
         <f>IFERROR(AH8 - $AH$2, "-")</f>
-        <v>45602</v>
+        <v>45669</v>
       </c>
       <c r="AH8" s="21">
         <f>IFERROR(WORKDAY(AJ8,45),"-")</f>
-        <v>45722</v>
+        <v>45789</v>
       </c>
       <c r="AI8" s="23"/>
       <c r="AJ8" s="24">
         <f>IFERROR(WORKDAY.INTL(AK8,(-$AK$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45659</v>
+        <v>45726</v>
       </c>
       <c r="AK8" s="21">
         <f>IFERROR(WORKDAY(AM8,-1),"-")</f>
-        <v>45777</v>
+        <v>45835</v>
       </c>
       <c r="AL8" s="23"/>
       <c r="AM8" s="24">
         <f>AP8</f>
-        <v>45778</v>
+        <v>45838</v>
       </c>
       <c r="AN8" s="21">
         <f>IFERROR(WORKDAY.INTL(AM8,($AN$2-1),,Feriados!A2:A8),"-")</f>
-        <v>45805</v>
+        <v>45863</v>
       </c>
       <c r="AO8" s="23"/>
       <c r="AP8" s="24">
         <f>IFERROR(WORKDAY.INTL(AS8,(-$AQ$2),,Feriados!A2:A8),"-")</f>
-        <v>45778</v>
+        <v>45838</v>
       </c>
       <c r="AQ8" s="21">
         <f>IFERROR(WORKDAY(AS8,-1),"-")</f>
-        <v>45876</v>
+        <v>45936</v>
       </c>
       <c r="AR8" s="23"/>
       <c r="AS8" s="24">
         <f>IFERROR(WORKDAY.INTL(AV8,(-$AT$2),,Feriados!A2:A8),"-")</f>
-        <v>45877</v>
+        <v>45937</v>
       </c>
       <c r="AT8" s="21">
         <f>IFERROR(WORKDAY(AV8,-1),"-")</f>
-        <v>45883</v>
+        <v>45943</v>
       </c>
       <c r="AU8" s="23"/>
       <c r="AV8" s="24">
         <f>IFERROR(WORKDAY.INTL(AW8,(-$AW$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45884</v>
+        <v>45944</v>
       </c>
       <c r="AW8" s="21">
         <f>IFERROR(WORKDAY(AY8,-1),"-")</f>
-        <v>45936</v>
+        <v>45994</v>
       </c>
       <c r="AX8" s="23"/>
       <c r="AY8" s="24">
         <f>BB8</f>
-        <v>45937</v>
+        <v>45995</v>
       </c>
       <c r="AZ8" s="21">
         <f>IFERROR(WORKDAY.INTL(AY8,($AZ$2-1),,Feriados!A2:A8),"-")</f>
-        <v>45950</v>
+        <v>46008</v>
       </c>
       <c r="BA8" s="23"/>
       <c r="BB8" s="24">
         <f>IFERROR(WORKDAY.INTL(BC8,(-$BC$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45937</v>
+        <v>45995</v>
       </c>
       <c r="BC8" s="21">
         <f>IFERROR(WORKDAY(BE8,-1),"-")</f>
-        <v>45978</v>
+        <v>46038</v>
       </c>
       <c r="BD8" s="23"/>
       <c r="BE8" s="24">
         <f>IFERROR(WORKDAY.INTL(BF8,(-$BF$2+1),,Feriados!A2:A8),"-")</f>
-        <v>45979</v>
+        <v>46041</v>
       </c>
       <c r="BF8" s="25">
-        <v>45992</v>
+        <v>46052</v>
       </c>
       <c r="BG8" s="15" t="str">
         <f>IFERROR(#REF!-#REF!,"-")</f>
@@ -1778,6 +1778,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="BE3:BF3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="U3:V3"/>
@@ -1791,12 +1797,6 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="BG8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">

--- a/PROGRAMAÇÃO NEOENERGIA.xlsx
+++ b/PROGRAMAÇÃO NEOENERGIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\NEOENERGIA\NEOENERGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BD13F1-018E-4027-BE6A-D76332C524C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1218E-911F-4CE7-BF4B-579F8B5B8661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFFF65E-4DF8-43ED-9181-8CFC5774E7BC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>PREV.</t>
   </si>
@@ -308,6 +308,51 @@
   </si>
   <si>
     <t>PINT-BAR</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>JD-EUCA</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HOR</t>
+  </si>
+  <si>
+    <t>MONJ</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>CA02</t>
+  </si>
+  <si>
+    <t>J.SER 1</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CER-F1</t>
+  </si>
+  <si>
+    <t>OLI</t>
+  </si>
+  <si>
+    <t>AMO-F1</t>
+  </si>
+  <si>
+    <t>VID</t>
   </si>
 </sst>
 </file>
@@ -550,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -590,9 +635,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A53CAD-F0FB-4914-9CA3-9D5835BA9B38}">
-  <dimension ref="A2:BG11"/>
+  <dimension ref="A2:BG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF9" sqref="BF9"/>
+      <pane xSplit="5" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW21" sqref="AW21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1144,91 +1186,91 @@
     </row>
     <row r="3" spans="1:59" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="I3" s="28" t="s">
+      <c r="G3" s="30"/>
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="L3" s="31" t="s">
+      <c r="J3" s="27"/>
+      <c r="L3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="30"/>
+      <c r="O3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="R3" s="28" t="s">
+      <c r="P3" s="27"/>
+      <c r="R3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="U3" s="28" t="s">
+      <c r="S3" s="27"/>
+      <c r="U3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="X3" s="28" t="s">
+      <c r="V3" s="27"/>
+      <c r="X3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="AA3" s="28" t="s">
+      <c r="Y3" s="27"/>
+      <c r="AA3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="28"/>
-      <c r="AD3" s="28" t="s">
+      <c r="AB3" s="27"/>
+      <c r="AD3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="28"/>
-      <c r="AG3" s="28" t="s">
+      <c r="AE3" s="27"/>
+      <c r="AG3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="28"/>
-      <c r="AJ3" s="28" t="s">
+      <c r="AH3" s="27"/>
+      <c r="AJ3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="28"/>
-      <c r="AM3" s="28" t="s">
+      <c r="AK3" s="27"/>
+      <c r="AM3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AN3" s="28"/>
-      <c r="AP3" s="28" t="s">
+      <c r="AN3" s="27"/>
+      <c r="AP3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AQ3" s="28"/>
-      <c r="AS3" s="28" t="s">
+      <c r="AQ3" s="27"/>
+      <c r="AS3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="28"/>
-      <c r="AV3" s="28" t="s">
+      <c r="AT3" s="27"/>
+      <c r="AV3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AW3" s="28"/>
-      <c r="AY3" s="28" t="s">
+      <c r="AW3" s="27"/>
+      <c r="AY3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AZ3" s="28"/>
-      <c r="BB3" s="28" t="s">
+      <c r="AZ3" s="27"/>
+      <c r="BB3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BC3" s="28"/>
-      <c r="BE3" s="28" t="s">
+      <c r="BC3" s="27"/>
+      <c r="BE3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="BF3" s="28"/>
+      <c r="BF3" s="27"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1340,10 +1382,10 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="10" t="s">
         <v>1</v>
       </c>
@@ -1608,164 +1650,164 @@
       <c r="E8" s="15">
         <v>0</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <f>IFERROR(WORKDAY.INTL(G8,(-$G$2+1),,Feriados!A2:A8),"-")</f>
         <v>45369</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <f>IFERROR(WORKDAY(I8,-1),"-")</f>
         <v>45422</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24">
+      <c r="H8" s="22"/>
+      <c r="I8" s="23">
         <f>IFERROR(WORKDAY.INTL(J8,(-$J$2+1),,Feriados!A2:A8),"-")</f>
         <v>45425</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <f>IFERROR(WORKDAY(X8,-1),"-")</f>
         <v>45506</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24">
+      <c r="K8" s="22"/>
+      <c r="L8" s="23">
         <f>IFERROR(WORKDAY.INTL(M8,(-$M$2+1),,Feriados!A2:A8),"-")</f>
         <v>45425</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <f>IFERROR(WORKDAY(X8,-1),"-")</f>
         <v>45506</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="21">
+      <c r="N8" s="22"/>
+      <c r="O8" s="20">
         <f>IFERROR(WORKDAY(J8,1),"-")</f>
         <v>45509</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="20">
         <f>IFERROR(WORKDAY.INTL(O8,($P$2-1),,Feriados!A2:A8),"-")</f>
         <v>45513</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23">
         <f>O8</f>
         <v>45509</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <f>IFERROR(WORKDAY.INTL(R8,($P$2-1),,Feriados!A2:A8),"-")</f>
         <v>45513</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="21">
+      <c r="T8" s="22"/>
+      <c r="U8" s="20">
         <f>IFERROR(WORKDAY(S8,1),"-")</f>
         <v>45516</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="20">
         <f>IFERROR(WORKDAY.INTL(U8,($V$2-1),,Feriados!A2:A8),"-")</f>
         <v>45708</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24">
+      <c r="W8" s="22"/>
+      <c r="X8" s="23">
         <f>IFERROR(WORKDAY.INTL(Y8,(-$Y$2+1),,Feriados!A2:A8),"-")</f>
         <v>45509</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="20">
         <f>IFERROR(WORKDAY(AA8,-1),"-")</f>
         <v>45527</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="24">
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="23">
         <f>IFERROR(WORKDAY.INTL(AD8,(-$AB$2),,Feriados!A2:A8),"-")</f>
         <v>45530</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AB8" s="20">
         <f>IFERROR(WORKDAY(AD8,-1),"-")</f>
         <v>45548</v>
       </c>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="24">
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="23">
         <f>IFERROR(AE8 - $AE$2, "-")</f>
         <v>45549</v>
       </c>
-      <c r="AE8" s="21">
+      <c r="AE8" s="20">
         <f>IFERROR(AG8,"-")</f>
         <v>45669</v>
       </c>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="24">
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="23">
         <f>IFERROR(AH8 - $AH$2, "-")</f>
         <v>45669</v>
       </c>
-      <c r="AH8" s="21">
+      <c r="AH8" s="20">
         <f>IFERROR(WORKDAY(AJ8,45),"-")</f>
         <v>45789</v>
       </c>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="24">
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="23">
         <f>IFERROR(WORKDAY.INTL(AK8,(-$AK$2+1),,Feriados!A2:A8),"-")</f>
         <v>45726</v>
       </c>
-      <c r="AK8" s="21">
+      <c r="AK8" s="20">
         <f>IFERROR(WORKDAY(AM8,-1),"-")</f>
         <v>45835</v>
       </c>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="24">
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="23">
         <f>AP8</f>
         <v>45838</v>
       </c>
-      <c r="AN8" s="21">
+      <c r="AN8" s="20">
         <f>IFERROR(WORKDAY.INTL(AM8,($AN$2-1),,Feriados!A2:A8),"-")</f>
         <v>45863</v>
       </c>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="24">
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="23">
         <f>IFERROR(WORKDAY.INTL(AS8,(-$AQ$2),,Feriados!A2:A8),"-")</f>
         <v>45838</v>
       </c>
-      <c r="AQ8" s="21">
+      <c r="AQ8" s="20">
         <f>IFERROR(WORKDAY(AS8,-1),"-")</f>
         <v>45936</v>
       </c>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="24">
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="23">
         <f>IFERROR(WORKDAY.INTL(AV8,(-$AT$2),,Feriados!A2:A8),"-")</f>
         <v>45937</v>
       </c>
-      <c r="AT8" s="21">
+      <c r="AT8" s="20">
         <f>IFERROR(WORKDAY(AV8,-1),"-")</f>
         <v>45943</v>
       </c>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="24">
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="23">
         <f>IFERROR(WORKDAY.INTL(AW8,(-$AW$2+1),,Feriados!A2:A8),"-")</f>
         <v>45944</v>
       </c>
-      <c r="AW8" s="21">
+      <c r="AW8" s="20">
         <f>IFERROR(WORKDAY(AY8,-1),"-")</f>
         <v>45994</v>
       </c>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="24">
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="23">
         <f>BB8</f>
         <v>45995</v>
       </c>
-      <c r="AZ8" s="21">
+      <c r="AZ8" s="20">
         <f>IFERROR(WORKDAY.INTL(AY8,($AZ$2-1),,Feriados!A2:A8),"-")</f>
         <v>46008</v>
       </c>
-      <c r="BA8" s="23"/>
-      <c r="BB8" s="24">
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="23">
         <f>IFERROR(WORKDAY.INTL(BC8,(-$BC$2+1),,Feriados!A2:A8),"-")</f>
         <v>45995</v>
       </c>
-      <c r="BC8" s="21">
+      <c r="BC8" s="20">
         <f>IFERROR(WORKDAY(BE8,-1),"-")</f>
         <v>46038</v>
       </c>
-      <c r="BD8" s="23"/>
-      <c r="BE8" s="24">
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="23">
         <f>IFERROR(WORKDAY.INTL(BF8,(-$BF$2+1),,Feriados!A2:A8),"-")</f>
         <v>46041</v>
       </c>
-      <c r="BF8" s="25">
+      <c r="BF8" s="24">
         <v>46052</v>
       </c>
       <c r="BG8" s="15" t="str">
@@ -1773,17 +1815,1590 @@
         <v>-</v>
       </c>
     </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <f>IFERROR(WORKDAY.INTL(G9,(-$G$2+1),,Feriados!A3:A9),"-")</f>
+        <v>45940</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" ref="G9:G17" si="0">IFERROR(WORKDAY(I9,-1),"-")</f>
+        <v>45995</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23">
+        <f>IFERROR(WORKDAY.INTL(J9,(-$J$2+1),,Feriados!A3:A9),"-")</f>
+        <v>45996</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" ref="J9:J17" si="1">IFERROR(WORKDAY(X9,-1),"-")</f>
+        <v>46083</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23">
+        <f>IFERROR(WORKDAY.INTL(M9,(-$M$2+1),,Feriados!A3:A9),"-")</f>
+        <v>45996</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" ref="M9:M17" si="2">IFERROR(WORKDAY(X9,-1),"-")</f>
+        <v>46083</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="20">
+        <f t="shared" ref="O9:O17" si="3">IFERROR(WORKDAY(J9,1),"-")</f>
+        <v>46084</v>
+      </c>
+      <c r="P9" s="20">
+        <f>IFERROR(WORKDAY.INTL(O9,($P$2-1),,Feriados!A3:A9),"-")</f>
+        <v>46090</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23">
+        <f t="shared" ref="R9:R17" si="4">O9</f>
+        <v>46084</v>
+      </c>
+      <c r="S9" s="20">
+        <f>IFERROR(WORKDAY.INTL(R9,($P$2-1),,Feriados!A3:A9),"-")</f>
+        <v>46090</v>
+      </c>
+      <c r="T9" s="22"/>
+      <c r="U9" s="20">
+        <f t="shared" ref="U9:U17" si="5">IFERROR(WORKDAY(S9,1),"-")</f>
+        <v>46091</v>
+      </c>
+      <c r="V9" s="20">
+        <f>IFERROR(WORKDAY.INTL(U9,($V$2-1),,Feriados!A3:A9),"-")</f>
+        <v>46283</v>
+      </c>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y9,(-$Y$2+1),,Feriados!A3:A9),"-")</f>
+        <v>46084</v>
+      </c>
+      <c r="Y9" s="20">
+        <f t="shared" ref="Y9:Y17" si="6">IFERROR(WORKDAY(AA9,-1),"-")</f>
+        <v>46104</v>
+      </c>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD9,(-$AB$2),,Feriados!A3:A9),"-")</f>
+        <v>46105</v>
+      </c>
+      <c r="AB9" s="20">
+        <f t="shared" ref="AB9:AB17" si="7">IFERROR(WORKDAY(AD9,-1),"-")</f>
+        <v>46125</v>
+      </c>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="23">
+        <f t="shared" ref="AD9:AD17" si="8">IFERROR(AE9 - $AE$2, "-")</f>
+        <v>46126</v>
+      </c>
+      <c r="AE9" s="20">
+        <f t="shared" ref="AE9:AE17" si="9">IFERROR(AG9,"-")</f>
+        <v>46246</v>
+      </c>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="23">
+        <f t="shared" ref="AG9:AG17" si="10">IFERROR(AH9 - $AH$2, "-")</f>
+        <v>46246</v>
+      </c>
+      <c r="AH9" s="20">
+        <f t="shared" ref="AH9:AH17" si="11">IFERROR(WORKDAY(AJ9,45),"-")</f>
+        <v>46366</v>
+      </c>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK9,(-$AK$2+1),,Feriados!A3:A9),"-")</f>
+        <v>46303</v>
+      </c>
+      <c r="AK9" s="20">
+        <f t="shared" ref="AK9:AK17" si="12">IFERROR(WORKDAY(AM9,-1),"-")</f>
+        <v>46414</v>
+      </c>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="23">
+        <f t="shared" ref="AM9:AM17" si="13">AP9</f>
+        <v>46415</v>
+      </c>
+      <c r="AN9" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM9,($AN$2-1),,Feriados!A3:A9),"-")</f>
+        <v>46442</v>
+      </c>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS9,(-$AQ$2),,Feriados!A3:A9),"-")</f>
+        <v>46415</v>
+      </c>
+      <c r="AQ9" s="20">
+        <f t="shared" ref="AQ9:AQ17" si="14">IFERROR(WORKDAY(AS9,-1),"-")</f>
+        <v>46513</v>
+      </c>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV9,(-$AT$2),,Feriados!A3:A9),"-")</f>
+        <v>46514</v>
+      </c>
+      <c r="AT9" s="20">
+        <f t="shared" ref="AT9:AT17" si="15">IFERROR(WORKDAY(AV9,-1),"-")</f>
+        <v>46520</v>
+      </c>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW9,(-$AW$2+1),,Feriados!A3:A9),"-")</f>
+        <v>46521</v>
+      </c>
+      <c r="AW9" s="20">
+        <f t="shared" ref="AW9:AW17" si="16">IFERROR(WORKDAY(AY9,-1),"-")</f>
+        <v>46573</v>
+      </c>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="23">
+        <f t="shared" ref="AY9:AY17" si="17">BB9</f>
+        <v>46574</v>
+      </c>
+      <c r="AZ9" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY9,($AZ$2-1),,Feriados!A3:A9),"-")</f>
+        <v>46587</v>
+      </c>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC9,(-$BC$2+1),,Feriados!A3:A9),"-")</f>
+        <v>46574</v>
+      </c>
+      <c r="BC9" s="20">
+        <f t="shared" ref="BC9:BC17" si="18">IFERROR(WORKDAY(BE9,-1),"-")</f>
+        <v>46615</v>
+      </c>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF9,(-$BF$2+1),,Feriados!A3:A9),"-")</f>
+        <v>46616</v>
+      </c>
+      <c r="BF9" s="24">
+        <v>46629</v>
+      </c>
+      <c r="BG9" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <f>IFERROR(WORKDAY.INTL(G10,(-$G$2+1),,Feriados!A4:A10),"-")</f>
+        <v>45824</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>45877</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23">
+        <f>IFERROR(WORKDAY.INTL(J10,(-$J$2+1),,Feriados!A4:A10),"-")</f>
+        <v>45880</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>45961</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23">
+        <f>IFERROR(WORKDAY.INTL(M10,(-$M$2+1),,Feriados!A4:A10),"-")</f>
+        <v>45880</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="2"/>
+        <v>45961</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="20">
+        <f t="shared" si="3"/>
+        <v>45964</v>
+      </c>
+      <c r="P10" s="20">
+        <f>IFERROR(WORKDAY.INTL(O10,($P$2-1),,Feriados!A4:A10),"-")</f>
+        <v>45968</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23">
+        <f t="shared" si="4"/>
+        <v>45964</v>
+      </c>
+      <c r="S10" s="20">
+        <f>IFERROR(WORKDAY.INTL(R10,($P$2-1),,Feriados!A4:A10),"-")</f>
+        <v>45968</v>
+      </c>
+      <c r="T10" s="22"/>
+      <c r="U10" s="20">
+        <f t="shared" si="5"/>
+        <v>45971</v>
+      </c>
+      <c r="V10" s="20">
+        <f>IFERROR(WORKDAY.INTL(U10,($V$2-1),,Feriados!A4:A10),"-")</f>
+        <v>46167</v>
+      </c>
+      <c r="W10" s="22"/>
+      <c r="X10" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y10,(-$Y$2+1),,Feriados!A4:A10),"-")</f>
+        <v>45964</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" si="6"/>
+        <v>45982</v>
+      </c>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD10,(-$AB$2),,Feriados!A4:A10),"-")</f>
+        <v>45985</v>
+      </c>
+      <c r="AB10" s="20">
+        <f t="shared" si="7"/>
+        <v>46003</v>
+      </c>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="23">
+        <f t="shared" si="8"/>
+        <v>46006</v>
+      </c>
+      <c r="AE10" s="20">
+        <f t="shared" si="9"/>
+        <v>46126</v>
+      </c>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="23">
+        <f t="shared" si="10"/>
+        <v>46126</v>
+      </c>
+      <c r="AH10" s="20">
+        <f t="shared" si="11"/>
+        <v>46246</v>
+      </c>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK10,(-$AK$2+1),,Feriados!A4:A10),"-")</f>
+        <v>46183</v>
+      </c>
+      <c r="AK10" s="20">
+        <f t="shared" si="12"/>
+        <v>46294</v>
+      </c>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="23">
+        <f t="shared" si="13"/>
+        <v>46295</v>
+      </c>
+      <c r="AN10" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM10,($AN$2-1),,Feriados!A4:A10),"-")</f>
+        <v>46322</v>
+      </c>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS10,(-$AQ$2),,Feriados!A4:A10),"-")</f>
+        <v>46295</v>
+      </c>
+      <c r="AQ10" s="20">
+        <f t="shared" si="14"/>
+        <v>46393</v>
+      </c>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV10,(-$AT$2),,Feriados!A4:A10),"-")</f>
+        <v>46394</v>
+      </c>
+      <c r="AT10" s="20">
+        <f t="shared" si="15"/>
+        <v>46400</v>
+      </c>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW10,(-$AW$2+1),,Feriados!A4:A10),"-")</f>
+        <v>46401</v>
+      </c>
+      <c r="AW10" s="20">
+        <f t="shared" si="16"/>
+        <v>46451</v>
+      </c>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="23">
+        <f t="shared" si="17"/>
+        <v>46454</v>
+      </c>
+      <c r="AZ10" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY10,($AZ$2-1),,Feriados!A4:A10),"-")</f>
+        <v>46465</v>
+      </c>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC10,(-$BC$2+1),,Feriados!A4:A10),"-")</f>
+        <v>46454</v>
+      </c>
+      <c r="BC10" s="20">
+        <f t="shared" si="18"/>
+        <v>46493</v>
+      </c>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF10,(-$BF$2+1),,Feriados!A4:A10),"-")</f>
+        <v>46496</v>
+      </c>
+      <c r="BF10" s="24">
+        <v>46507</v>
+      </c>
+      <c r="BG10" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AH11" s="19"/>
+      <c r="B11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <f>IFERROR(WORKDAY.INTL(G11,(-$G$2+1),,Feriados!A5:A11),"-")</f>
+        <v>45488</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>45541</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23">
+        <f>IFERROR(WORKDAY.INTL(J11,(-$J$2+1),,Feriados!A5:A11),"-")</f>
+        <v>45544</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>45625</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23">
+        <f>IFERROR(WORKDAY.INTL(M11,(-$M$2+1),,Feriados!A5:A11),"-")</f>
+        <v>45544</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="2"/>
+        <v>45625</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="20">
+        <f t="shared" si="3"/>
+        <v>45628</v>
+      </c>
+      <c r="P11" s="20">
+        <f>IFERROR(WORKDAY.INTL(O11,($P$2-1),,Feriados!A5:A11),"-")</f>
+        <v>45632</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23">
+        <f t="shared" si="4"/>
+        <v>45628</v>
+      </c>
+      <c r="S11" s="20">
+        <f>IFERROR(WORKDAY.INTL(R11,($P$2-1),,Feriados!A5:A11),"-")</f>
+        <v>45632</v>
+      </c>
+      <c r="T11" s="22"/>
+      <c r="U11" s="20">
+        <f t="shared" si="5"/>
+        <v>45635</v>
+      </c>
+      <c r="V11" s="20">
+        <f>IFERROR(WORKDAY.INTL(U11,($V$2-1),,Feriados!A5:A11),"-")</f>
+        <v>45831</v>
+      </c>
+      <c r="W11" s="22"/>
+      <c r="X11" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y11,(-$Y$2+1),,Feriados!A5:A11),"-")</f>
+        <v>45628</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" si="6"/>
+        <v>45646</v>
+      </c>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD11,(-$AB$2),,Feriados!A5:A11),"-")</f>
+        <v>45649</v>
+      </c>
+      <c r="AB11" s="20">
+        <f t="shared" si="7"/>
+        <v>45667</v>
+      </c>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="23">
+        <f t="shared" si="8"/>
+        <v>45668</v>
+      </c>
+      <c r="AE11" s="20">
+        <f t="shared" si="9"/>
+        <v>45788</v>
+      </c>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="23">
+        <f t="shared" si="10"/>
+        <v>45788</v>
+      </c>
+      <c r="AH11" s="20">
+        <f t="shared" si="11"/>
+        <v>45908</v>
+      </c>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK11,(-$AK$2+1),,Feriados!A5:A11),"-")</f>
+        <v>45845</v>
+      </c>
+      <c r="AK11" s="20">
+        <f t="shared" si="12"/>
+        <v>45954</v>
+      </c>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="23">
+        <f t="shared" si="13"/>
+        <v>45957</v>
+      </c>
+      <c r="AN11" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM11,($AN$2-1),,Feriados!A5:A11),"-")</f>
+        <v>45982</v>
+      </c>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS11,(-$AQ$2),,Feriados!A5:A11),"-")</f>
+        <v>45957</v>
+      </c>
+      <c r="AQ11" s="20">
+        <f t="shared" si="14"/>
+        <v>46057</v>
+      </c>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV11,(-$AT$2),,Feriados!A5:A11),"-")</f>
+        <v>46058</v>
+      </c>
+      <c r="AT11" s="20">
+        <f t="shared" si="15"/>
+        <v>46064</v>
+      </c>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW11,(-$AW$2+1),,Feriados!A5:A11),"-")</f>
+        <v>46065</v>
+      </c>
+      <c r="AW11" s="20">
+        <f t="shared" si="16"/>
+        <v>46115</v>
+      </c>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="23">
+        <f t="shared" si="17"/>
+        <v>46118</v>
+      </c>
+      <c r="AZ11" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY11,($AZ$2-1),,Feriados!A5:A11),"-")</f>
+        <v>46129</v>
+      </c>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC11,(-$BC$2+1),,Feriados!A5:A11),"-")</f>
+        <v>46118</v>
+      </c>
+      <c r="BC11" s="20">
+        <f t="shared" si="18"/>
+        <v>46157</v>
+      </c>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF11,(-$BF$2+1),,Feriados!A5:A11),"-")</f>
+        <v>46160</v>
+      </c>
+      <c r="BF11" s="24">
+        <v>46171</v>
+      </c>
+      <c r="BG11" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <f>IFERROR(WORKDAY.INTL(G12,(-$G$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45187</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>45240</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23">
+        <f>IFERROR(WORKDAY.INTL(J12,(-$J$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45243</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>45324</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23">
+        <f>IFERROR(WORKDAY.INTL(M12,(-$M$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45243</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="2"/>
+        <v>45324</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="20">
+        <f t="shared" si="3"/>
+        <v>45327</v>
+      </c>
+      <c r="P12" s="20">
+        <f>IFERROR(WORKDAY.INTL(O12,($P$2-1),,Feriados!A6:A12),"-")</f>
+        <v>45331</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23">
+        <f t="shared" si="4"/>
+        <v>45327</v>
+      </c>
+      <c r="S12" s="20">
+        <f>IFERROR(WORKDAY.INTL(R12,($P$2-1),,Feriados!A6:A12),"-")</f>
+        <v>45331</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="20">
+        <f t="shared" si="5"/>
+        <v>45334</v>
+      </c>
+      <c r="V12" s="20">
+        <f>IFERROR(WORKDAY.INTL(U12,($V$2-1),,Feriados!A6:A12),"-")</f>
+        <v>45526</v>
+      </c>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y12,(-$Y$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45327</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" si="6"/>
+        <v>45345</v>
+      </c>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD12,(-$AB$2),,Feriados!A6:A12),"-")</f>
+        <v>45348</v>
+      </c>
+      <c r="AB12" s="20">
+        <f t="shared" si="7"/>
+        <v>45366</v>
+      </c>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="23">
+        <f t="shared" si="8"/>
+        <v>45367</v>
+      </c>
+      <c r="AE12" s="20">
+        <f t="shared" si="9"/>
+        <v>45487</v>
+      </c>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="23">
+        <f t="shared" si="10"/>
+        <v>45487</v>
+      </c>
+      <c r="AH12" s="20">
+        <f t="shared" si="11"/>
+        <v>45607</v>
+      </c>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK12,(-$AK$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45544</v>
+      </c>
+      <c r="AK12" s="20">
+        <f t="shared" si="12"/>
+        <v>45653</v>
+      </c>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="23">
+        <f t="shared" si="13"/>
+        <v>45656</v>
+      </c>
+      <c r="AN12" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM12,($AN$2-1),,Feriados!A6:A12),"-")</f>
+        <v>45681</v>
+      </c>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS12,(-$AQ$2),,Feriados!A6:A12),"-")</f>
+        <v>45656</v>
+      </c>
+      <c r="AQ12" s="20">
+        <f t="shared" si="14"/>
+        <v>45755</v>
+      </c>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV12,(-$AT$2),,Feriados!A6:A12),"-")</f>
+        <v>45756</v>
+      </c>
+      <c r="AT12" s="20">
+        <f t="shared" si="15"/>
+        <v>45762</v>
+      </c>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW12,(-$AW$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45763</v>
+      </c>
+      <c r="AW12" s="20">
+        <f t="shared" si="16"/>
+        <v>45813</v>
+      </c>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="23">
+        <f t="shared" si="17"/>
+        <v>45814</v>
+      </c>
+      <c r="AZ12" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY12,($AZ$2-1),,Feriados!A6:A12),"-")</f>
+        <v>45827</v>
+      </c>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC12,(-$BC$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45814</v>
+      </c>
+      <c r="BC12" s="20">
+        <f t="shared" si="18"/>
+        <v>45855</v>
+      </c>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF12,(-$BF$2+1),,Feriados!A6:A12),"-")</f>
+        <v>45856</v>
+      </c>
+      <c r="BF12" s="24">
+        <v>45869</v>
+      </c>
+      <c r="BG12" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f>IFERROR(WORKDAY.INTL(G13,(-$G$2+1),,Feriados!A7:A13),"-")</f>
+        <v>45608</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>45663</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23">
+        <f>IFERROR(WORKDAY.INTL(J13,(-$J$2+1),,Feriados!A7:A13),"-")</f>
+        <v>45664</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23">
+        <f>IFERROR(WORKDAY.INTL(M13,(-$M$2+1),,Feriados!A7:A13),"-")</f>
+        <v>45664</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="2"/>
+        <v>45747</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="20">
+        <f t="shared" si="3"/>
+        <v>45748</v>
+      </c>
+      <c r="P13" s="20">
+        <f>IFERROR(WORKDAY.INTL(O13,($P$2-1),,Feriados!A7:A13),"-")</f>
+        <v>45754</v>
+      </c>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23">
+        <f t="shared" si="4"/>
+        <v>45748</v>
+      </c>
+      <c r="S13" s="20">
+        <f>IFERROR(WORKDAY.INTL(R13,($P$2-1),,Feriados!A7:A13),"-")</f>
+        <v>45754</v>
+      </c>
+      <c r="T13" s="22"/>
+      <c r="U13" s="20">
+        <f t="shared" si="5"/>
+        <v>45755</v>
+      </c>
+      <c r="V13" s="20">
+        <f>IFERROR(WORKDAY.INTL(U13,($V$2-1),,Feriados!A7:A13),"-")</f>
+        <v>45947</v>
+      </c>
+      <c r="W13" s="22"/>
+      <c r="X13" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y13,(-$Y$2+1),,Feriados!A7:A13),"-")</f>
+        <v>45748</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="6"/>
+        <v>45768</v>
+      </c>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD13,(-$AB$2),,Feriados!A7:A13),"-")</f>
+        <v>45769</v>
+      </c>
+      <c r="AB13" s="20">
+        <f t="shared" si="7"/>
+        <v>45789</v>
+      </c>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="23">
+        <f t="shared" si="8"/>
+        <v>45790</v>
+      </c>
+      <c r="AE13" s="20">
+        <f t="shared" si="9"/>
+        <v>45910</v>
+      </c>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="23">
+        <f t="shared" si="10"/>
+        <v>45910</v>
+      </c>
+      <c r="AH13" s="20">
+        <f t="shared" si="11"/>
+        <v>46030</v>
+      </c>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK13,(-$AK$2+1),,Feriados!A7:A13),"-")</f>
+        <v>45967</v>
+      </c>
+      <c r="AK13" s="20">
+        <f t="shared" si="12"/>
+        <v>46080</v>
+      </c>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="23">
+        <f t="shared" si="13"/>
+        <v>46083</v>
+      </c>
+      <c r="AN13" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM13,($AN$2-1),,Feriados!A7:A13),"-")</f>
+        <v>46108</v>
+      </c>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS13,(-$AQ$2),,Feriados!A7:A13),"-")</f>
+        <v>46083</v>
+      </c>
+      <c r="AQ13" s="20">
+        <f t="shared" si="14"/>
+        <v>46181</v>
+      </c>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV13,(-$AT$2),,Feriados!A7:A13),"-")</f>
+        <v>46182</v>
+      </c>
+      <c r="AT13" s="20">
+        <f t="shared" si="15"/>
+        <v>46188</v>
+      </c>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW13,(-$AW$2+1),,Feriados!A7:A13),"-")</f>
+        <v>46189</v>
+      </c>
+      <c r="AW13" s="20">
+        <f t="shared" si="16"/>
+        <v>46239</v>
+      </c>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="23">
+        <f t="shared" si="17"/>
+        <v>46240</v>
+      </c>
+      <c r="AZ13" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY13,($AZ$2-1),,Feriados!A7:A13),"-")</f>
+        <v>46253</v>
+      </c>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC13,(-$BC$2+1),,Feriados!A7:A13),"-")</f>
+        <v>46240</v>
+      </c>
+      <c r="BC13" s="20">
+        <f t="shared" si="18"/>
+        <v>46281</v>
+      </c>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF13,(-$BF$2+1),,Feriados!A7:A13),"-")</f>
+        <v>46282</v>
+      </c>
+      <c r="BF13" s="24">
+        <v>46295</v>
+      </c>
+      <c r="BG13" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <f>IFERROR(WORKDAY.INTL(G14,(-$G$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45313</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>45366</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23">
+        <f>IFERROR(WORKDAY.INTL(J14,(-$J$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45369</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>45450</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23">
+        <f>IFERROR(WORKDAY.INTL(M14,(-$M$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45369</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="2"/>
+        <v>45450</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="20">
+        <f t="shared" si="3"/>
+        <v>45453</v>
+      </c>
+      <c r="P14" s="20">
+        <f>IFERROR(WORKDAY.INTL(O14,($P$2-1),,Feriados!A8:A14),"-")</f>
+        <v>45457</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23">
+        <f t="shared" si="4"/>
+        <v>45453</v>
+      </c>
+      <c r="S14" s="20">
+        <f>IFERROR(WORKDAY.INTL(R14,($P$2-1),,Feriados!A8:A14),"-")</f>
+        <v>45457</v>
+      </c>
+      <c r="T14" s="22"/>
+      <c r="U14" s="20">
+        <f t="shared" si="5"/>
+        <v>45460</v>
+      </c>
+      <c r="V14" s="20">
+        <f>IFERROR(WORKDAY.INTL(U14,($V$2-1),,Feriados!A8:A14),"-")</f>
+        <v>45652</v>
+      </c>
+      <c r="W14" s="22"/>
+      <c r="X14" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y14,(-$Y$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45453</v>
+      </c>
+      <c r="Y14" s="20">
+        <f t="shared" si="6"/>
+        <v>45471</v>
+      </c>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD14,(-$AB$2),,Feriados!A8:A14),"-")</f>
+        <v>45474</v>
+      </c>
+      <c r="AB14" s="20">
+        <f t="shared" si="7"/>
+        <v>45492</v>
+      </c>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="23">
+        <f t="shared" si="8"/>
+        <v>45495</v>
+      </c>
+      <c r="AE14" s="20">
+        <f t="shared" si="9"/>
+        <v>45615</v>
+      </c>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="23">
+        <f t="shared" si="10"/>
+        <v>45615</v>
+      </c>
+      <c r="AH14" s="20">
+        <f t="shared" si="11"/>
+        <v>45735</v>
+      </c>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK14,(-$AK$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45672</v>
+      </c>
+      <c r="AK14" s="20">
+        <f t="shared" si="12"/>
+        <v>45783</v>
+      </c>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="23">
+        <f t="shared" si="13"/>
+        <v>45784</v>
+      </c>
+      <c r="AN14" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM14,($AN$2-1),,Feriados!A8:A14),"-")</f>
+        <v>45811</v>
+      </c>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS14,(-$AQ$2),,Feriados!A8:A14),"-")</f>
+        <v>45784</v>
+      </c>
+      <c r="AQ14" s="20">
+        <f t="shared" si="14"/>
+        <v>45882</v>
+      </c>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV14,(-$AT$2),,Feriados!A8:A14),"-")</f>
+        <v>45883</v>
+      </c>
+      <c r="AT14" s="20">
+        <f t="shared" si="15"/>
+        <v>45889</v>
+      </c>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW14,(-$AW$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45890</v>
+      </c>
+      <c r="AW14" s="20">
+        <f t="shared" si="16"/>
+        <v>45940</v>
+      </c>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="23">
+        <f t="shared" si="17"/>
+        <v>45943</v>
+      </c>
+      <c r="AZ14" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY14,($AZ$2-1),,Feriados!A8:A14),"-")</f>
+        <v>45954</v>
+      </c>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC14,(-$BC$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45943</v>
+      </c>
+      <c r="BC14" s="20">
+        <f t="shared" si="18"/>
+        <v>45982</v>
+      </c>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF14,(-$BF$2+1),,Feriados!A8:A14),"-")</f>
+        <v>45985</v>
+      </c>
+      <c r="BF14" s="24">
+        <v>45996</v>
+      </c>
+      <c r="BG14" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <f>IFERROR(WORKDAY.INTL(G15,(-$G$2+1),,Feriados!A9:A15),"-")</f>
+        <v>45518</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>45573</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23">
+        <f>IFERROR(WORKDAY.INTL(J15,(-$J$2+1),,Feriados!A9:A15),"-")</f>
+        <v>45574</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="1"/>
+        <v>45657</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23">
+        <f>IFERROR(WORKDAY.INTL(M15,(-$M$2+1),,Feriados!A9:A15),"-")</f>
+        <v>45574</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" si="2"/>
+        <v>45657</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="20">
+        <f t="shared" si="3"/>
+        <v>45658</v>
+      </c>
+      <c r="P15" s="20">
+        <f>IFERROR(WORKDAY.INTL(O15,($P$2-1),,Feriados!A9:A15),"-")</f>
+        <v>45664</v>
+      </c>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23">
+        <f t="shared" si="4"/>
+        <v>45658</v>
+      </c>
+      <c r="S15" s="20">
+        <f>IFERROR(WORKDAY.INTL(R15,($P$2-1),,Feriados!A9:A15),"-")</f>
+        <v>45664</v>
+      </c>
+      <c r="T15" s="22"/>
+      <c r="U15" s="20">
+        <f t="shared" si="5"/>
+        <v>45665</v>
+      </c>
+      <c r="V15" s="20">
+        <f>IFERROR(WORKDAY.INTL(U15,($V$2-1),,Feriados!A9:A15),"-")</f>
+        <v>45859</v>
+      </c>
+      <c r="W15" s="22"/>
+      <c r="X15" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y15,(-$Y$2+1),,Feriados!A9:A15),"-")</f>
+        <v>45658</v>
+      </c>
+      <c r="Y15" s="20">
+        <f t="shared" si="6"/>
+        <v>45678</v>
+      </c>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD15,(-$AB$2),,Feriados!A9:A15),"-")</f>
+        <v>45679</v>
+      </c>
+      <c r="AB15" s="20">
+        <f t="shared" si="7"/>
+        <v>45699</v>
+      </c>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="23">
+        <f t="shared" si="8"/>
+        <v>45700</v>
+      </c>
+      <c r="AE15" s="20">
+        <f t="shared" si="9"/>
+        <v>45820</v>
+      </c>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="23">
+        <f t="shared" si="10"/>
+        <v>45820</v>
+      </c>
+      <c r="AH15" s="20">
+        <f t="shared" si="11"/>
+        <v>45940</v>
+      </c>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK15,(-$AK$2+1),,Feriados!A9:A15),"-")</f>
+        <v>45877</v>
+      </c>
+      <c r="AK15" s="20">
+        <f t="shared" si="12"/>
+        <v>45988</v>
+      </c>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="23">
+        <f t="shared" si="13"/>
+        <v>45989</v>
+      </c>
+      <c r="AN15" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM15,($AN$2-1),,Feriados!A9:A15),"-")</f>
+        <v>46016</v>
+      </c>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS15,(-$AQ$2),,Feriados!A9:A15),"-")</f>
+        <v>45989</v>
+      </c>
+      <c r="AQ15" s="20">
+        <f t="shared" si="14"/>
+        <v>46087</v>
+      </c>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV15,(-$AT$2),,Feriados!A9:A15),"-")</f>
+        <v>46090</v>
+      </c>
+      <c r="AT15" s="20">
+        <f t="shared" si="15"/>
+        <v>46094</v>
+      </c>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW15,(-$AW$2+1),,Feriados!A9:A15),"-")</f>
+        <v>46097</v>
+      </c>
+      <c r="AW15" s="20">
+        <f t="shared" si="16"/>
+        <v>46147</v>
+      </c>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="23">
+        <f t="shared" si="17"/>
+        <v>46148</v>
+      </c>
+      <c r="AZ15" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY15,($AZ$2-1),,Feriados!A9:A15),"-")</f>
+        <v>46161</v>
+      </c>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC15,(-$BC$2+1),,Feriados!A9:A15),"-")</f>
+        <v>46148</v>
+      </c>
+      <c r="BC15" s="20">
+        <f t="shared" si="18"/>
+        <v>46189</v>
+      </c>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF15,(-$BF$2+1),,Feriados!A9:A15),"-")</f>
+        <v>46190</v>
+      </c>
+      <c r="BF15" s="24">
+        <v>46203</v>
+      </c>
+      <c r="BG15" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <f>IFERROR(WORKDAY.INTL(G16,(-$G$2+1),,Feriados!A10:A16),"-")</f>
+        <v>45642</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>45695</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23">
+        <f>IFERROR(WORKDAY.INTL(J16,(-$J$2+1),,Feriados!A10:A16),"-")</f>
+        <v>45698</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>45779</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23">
+        <f>IFERROR(WORKDAY.INTL(M16,(-$M$2+1),,Feriados!A10:A16),"-")</f>
+        <v>45698</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="2"/>
+        <v>45779</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="20">
+        <f t="shared" si="3"/>
+        <v>45782</v>
+      </c>
+      <c r="P16" s="20">
+        <f>IFERROR(WORKDAY.INTL(O16,($P$2-1),,Feriados!A10:A16),"-")</f>
+        <v>45786</v>
+      </c>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23">
+        <f t="shared" si="4"/>
+        <v>45782</v>
+      </c>
+      <c r="S16" s="20">
+        <f>IFERROR(WORKDAY.INTL(R16,($P$2-1),,Feriados!A10:A16),"-")</f>
+        <v>45786</v>
+      </c>
+      <c r="T16" s="22"/>
+      <c r="U16" s="20">
+        <f t="shared" si="5"/>
+        <v>45789</v>
+      </c>
+      <c r="V16" s="20">
+        <f>IFERROR(WORKDAY.INTL(U16,($V$2-1),,Feriados!A10:A16),"-")</f>
+        <v>45981</v>
+      </c>
+      <c r="W16" s="22"/>
+      <c r="X16" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y16,(-$Y$2+1),,Feriados!A10:A16),"-")</f>
+        <v>45782</v>
+      </c>
+      <c r="Y16" s="20">
+        <f t="shared" si="6"/>
+        <v>45800</v>
+      </c>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD16,(-$AB$2),,Feriados!A10:A16),"-")</f>
+        <v>45803</v>
+      </c>
+      <c r="AB16" s="20">
+        <f t="shared" si="7"/>
+        <v>45821</v>
+      </c>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="23">
+        <f t="shared" si="8"/>
+        <v>45824</v>
+      </c>
+      <c r="AE16" s="20">
+        <f t="shared" si="9"/>
+        <v>45944</v>
+      </c>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="23">
+        <f t="shared" si="10"/>
+        <v>45944</v>
+      </c>
+      <c r="AH16" s="20">
+        <f t="shared" si="11"/>
+        <v>46064</v>
+      </c>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK16,(-$AK$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46001</v>
+      </c>
+      <c r="AK16" s="20">
+        <f t="shared" si="12"/>
+        <v>46112</v>
+      </c>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="23">
+        <f t="shared" si="13"/>
+        <v>46113</v>
+      </c>
+      <c r="AN16" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM16,($AN$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46140</v>
+      </c>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS16,(-$AQ$2),,Feriados!A10:A16),"-")</f>
+        <v>46113</v>
+      </c>
+      <c r="AQ16" s="20">
+        <f t="shared" si="14"/>
+        <v>46211</v>
+      </c>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV16,(-$AT$2),,Feriados!A10:A16),"-")</f>
+        <v>46212</v>
+      </c>
+      <c r="AT16" s="20">
+        <f t="shared" si="15"/>
+        <v>46218</v>
+      </c>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW16,(-$AW$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46219</v>
+      </c>
+      <c r="AW16" s="20">
+        <f t="shared" si="16"/>
+        <v>46269</v>
+      </c>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="23">
+        <f t="shared" si="17"/>
+        <v>46272</v>
+      </c>
+      <c r="AZ16" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY16,($AZ$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46283</v>
+      </c>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC16,(-$BC$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46272</v>
+      </c>
+      <c r="BC16" s="20">
+        <f t="shared" si="18"/>
+        <v>46311</v>
+      </c>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF16,(-$BF$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46314</v>
+      </c>
+      <c r="BF16" s="24">
+        <v>46325</v>
+      </c>
+      <c r="BG16" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20" t="str">
+        <f>IFERROR(WORKDAY.INTL(G17,(-$G$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(J17,(-$J$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(M17,(-$M$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="M17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="P17" s="20" t="str">
+        <f>IFERROR(WORKDAY.INTL(O17,($P$2-1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S17" s="20" t="str">
+        <f>IFERROR(WORKDAY.INTL(R17,($P$2-1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="T17" s="22"/>
+      <c r="U17" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="V17" s="20" t="str">
+        <f>IFERROR(WORKDAY.INTL(U17,($V$2-1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="W17" s="22"/>
+      <c r="X17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(Y17,(-$Y$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y17" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(AD17,(-$AB$2),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AB17" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="AE17" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AH17" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(AK17,(-$AK$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AK17" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>-</v>
+      </c>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="AN17" s="20" t="str">
+        <f>IFERROR(WORKDAY.INTL(AM17,($AN$2-1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(AS17,(-$AQ$2),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AQ17" s="20" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(AV17,(-$AT$2),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AT17" s="20" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(AW17,(-$AW$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AW17" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="AZ17" s="20" t="str">
+        <f>IFERROR(WORKDAY.INTL(AY17,($AZ$2-1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(BC17,(-$BC$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="BC17" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="23" t="str">
+        <f>IFERROR(WORKDAY.INTL(BF17,(-$BF$2+1),,Feriados!A11:A17),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="BE3:BF3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="U3:V3"/>
@@ -1797,8 +3412,15 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
-  <conditionalFormatting sqref="BG8">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="BG8:BG17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -1807,7 +3429,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1839,14 +3462,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
@@ -1854,144 +3477,144 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2018,7 +3641,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
     </row>

--- a/PROGRAMAÇÃO NEOENERGIA.xlsx
+++ b/PROGRAMAÇÃO NEOENERGIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\NEOENERGIA\NEOENERGIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\NEOENERGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1218E-911F-4CE7-BF4B-579F8B5B8661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD82071-D0CA-42FE-A2AC-24A8FE270C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFFF65E-4DF8-43ED-9181-8CFC5774E7BC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>PREV.</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>VID</t>
+  </si>
+  <si>
+    <t>NASSAU</t>
   </si>
 </sst>
 </file>
@@ -1041,11 +1044,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A53CAD-F0FB-4914-9CA3-9D5835BA9B38}">
-  <dimension ref="A2:BG17"/>
+  <dimension ref="A2:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW21" sqref="AW21"/>
+      <pane xSplit="5" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF22" sqref="BF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1834,7 @@
         <v>45940</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" ref="G9:G17" si="0">IFERROR(WORKDAY(I9,-1),"-")</f>
+        <f t="shared" ref="G9:G18" si="0">IFERROR(WORKDAY(I9,-1),"-")</f>
         <v>45995</v>
       </c>
       <c r="H9" s="22"/>
@@ -3397,8 +3400,187 @@
         <v>-</v>
       </c>
     </row>
+    <row r="18" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <f>IFERROR(WORKDAY.INTL(G18,(-$G$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45427</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" ref="G18" si="19">IFERROR(WORKDAY(I18,-1),"-")</f>
+        <v>45482</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23">
+        <f>IFERROR(WORKDAY.INTL(J18,(-$J$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45483</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" ref="J18" si="20">IFERROR(WORKDAY(X18,-1),"-")</f>
+        <v>45566</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23">
+        <f>IFERROR(WORKDAY.INTL(M18,(-$M$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45483</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" ref="M18" si="21">IFERROR(WORKDAY(X18,-1),"-")</f>
+        <v>45566</v>
+      </c>
+      <c r="N18" s="22"/>
+      <c r="O18" s="20">
+        <f t="shared" ref="O18" si="22">IFERROR(WORKDAY(J18,1),"-")</f>
+        <v>45567</v>
+      </c>
+      <c r="P18" s="20">
+        <f>IFERROR(WORKDAY.INTL(O18,($P$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45573</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23">
+        <f t="shared" ref="R18" si="23">O18</f>
+        <v>45567</v>
+      </c>
+      <c r="S18" s="20">
+        <f>IFERROR(WORKDAY.INTL(R18,($P$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45573</v>
+      </c>
+      <c r="T18" s="22"/>
+      <c r="U18" s="20">
+        <f t="shared" ref="U18" si="24">IFERROR(WORKDAY(S18,1),"-")</f>
+        <v>45574</v>
+      </c>
+      <c r="V18" s="20">
+        <f>IFERROR(WORKDAY.INTL(U18,($V$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45768</v>
+      </c>
+      <c r="W18" s="22"/>
+      <c r="X18" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y18,(-$Y$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45567</v>
+      </c>
+      <c r="Y18" s="20">
+        <f t="shared" ref="Y18" si="25">IFERROR(WORKDAY(AA18,-1),"-")</f>
+        <v>45587</v>
+      </c>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD18,(-$AB$2),,Feriados!A12:A18),"-")</f>
+        <v>45588</v>
+      </c>
+      <c r="AB18" s="20">
+        <f t="shared" ref="AB18" si="26">IFERROR(WORKDAY(AD18,-1),"-")</f>
+        <v>45608</v>
+      </c>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="23">
+        <f t="shared" ref="AD18" si="27">IFERROR(AE18 - $AE$2, "-")</f>
+        <v>45609</v>
+      </c>
+      <c r="AE18" s="20">
+        <f t="shared" ref="AE18" si="28">IFERROR(AG18,"-")</f>
+        <v>45729</v>
+      </c>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="23">
+        <f t="shared" ref="AG18" si="29">IFERROR(AH18 - $AH$2, "-")</f>
+        <v>45729</v>
+      </c>
+      <c r="AH18" s="20">
+        <f t="shared" ref="AH18" si="30">IFERROR(WORKDAY(AJ18,45),"-")</f>
+        <v>45849</v>
+      </c>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK18,(-$AK$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45786</v>
+      </c>
+      <c r="AK18" s="20">
+        <f t="shared" ref="AK18" si="31">IFERROR(WORKDAY(AM18,-1),"-")</f>
+        <v>45897</v>
+      </c>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="23">
+        <f t="shared" ref="AM18" si="32">AP18</f>
+        <v>45898</v>
+      </c>
+      <c r="AN18" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM18,($AN$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45925</v>
+      </c>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS18,(-$AQ$2),,Feriados!A12:A18),"-")</f>
+        <v>45898</v>
+      </c>
+      <c r="AQ18" s="20">
+        <f t="shared" ref="AQ18" si="33">IFERROR(WORKDAY(AS18,-1),"-")</f>
+        <v>45996</v>
+      </c>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV18,(-$AT$2),,Feriados!A12:A18),"-")</f>
+        <v>45999</v>
+      </c>
+      <c r="AT18" s="20">
+        <f t="shared" ref="AT18" si="34">IFERROR(WORKDAY(AV18,-1),"-")</f>
+        <v>46003</v>
+      </c>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW18,(-$AW$2+1),,Feriados!A12:A18),"-")</f>
+        <v>46006</v>
+      </c>
+      <c r="AW18" s="20">
+        <f t="shared" ref="AW18" si="35">IFERROR(WORKDAY(AY18,-1),"-")</f>
+        <v>46056</v>
+      </c>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="23">
+        <f t="shared" ref="AY18" si="36">BB18</f>
+        <v>46057</v>
+      </c>
+      <c r="AZ18" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY18,($AZ$2-1),,Feriados!A12:A18),"-")</f>
+        <v>46070</v>
+      </c>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC18,(-$BC$2+1),,Feriados!A12:A18),"-")</f>
+        <v>46057</v>
+      </c>
+      <c r="BC18" s="20">
+        <f t="shared" ref="BC18" si="37">IFERROR(WORKDAY(BE18,-1),"-")</f>
+        <v>46098</v>
+      </c>
+      <c r="BD18" s="22"/>
+      <c r="BE18" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF18,(-$BF$2+1),,Feriados!A12:A18),"-")</f>
+        <v>46099</v>
+      </c>
+      <c r="BF18" s="24">
+        <v>46112</v>
+      </c>
+      <c r="BG18" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="BE3:BF3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="U3:V3"/>
@@ -3412,15 +3594,9 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="BG8:BG17">
+  <conditionalFormatting sqref="BG8:BG18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/PROGRAMAÇÃO NEOENERGIA.xlsx
+++ b/PROGRAMAÇÃO NEOENERGIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\NEOENERGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD82071-D0CA-42FE-A2AC-24A8FE270C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7D183-5531-48C7-A221-FC4CA9A373D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFFF65E-4DF8-43ED-9181-8CFC5774E7BC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
   <si>
     <t>PREV.</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>NASSAU</t>
+  </si>
+  <si>
+    <t>FIG</t>
+  </si>
+  <si>
+    <t>PIT</t>
   </si>
 </sst>
 </file>
@@ -1044,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A53CAD-F0FB-4914-9CA3-9D5835BA9B38}">
-  <dimension ref="A2:BG18"/>
+  <dimension ref="A2:BG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF22" sqref="BF22"/>
+      <pane xSplit="5" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH18" sqref="BH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1840,7 @@
         <v>45940</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" ref="G9:G18" si="0">IFERROR(WORKDAY(I9,-1),"-")</f>
+        <f t="shared" ref="G9:G19" si="0">IFERROR(WORKDAY(I9,-1),"-")</f>
         <v>45995</v>
       </c>
       <c r="H9" s="22"/>
@@ -1843,7 +1849,7 @@
         <v>45996</v>
       </c>
       <c r="J9" s="20">
-        <f t="shared" ref="J9:J17" si="1">IFERROR(WORKDAY(X9,-1),"-")</f>
+        <f t="shared" ref="J9:J19" si="1">IFERROR(WORKDAY(X9,-1),"-")</f>
         <v>46083</v>
       </c>
       <c r="K9" s="22"/>
@@ -1852,12 +1858,12 @@
         <v>45996</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" ref="M9:M17" si="2">IFERROR(WORKDAY(X9,-1),"-")</f>
+        <f t="shared" ref="M9:M19" si="2">IFERROR(WORKDAY(X9,-1),"-")</f>
         <v>46083</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="20">
-        <f t="shared" ref="O9:O17" si="3">IFERROR(WORKDAY(J9,1),"-")</f>
+        <f t="shared" ref="O9:O19" si="3">IFERROR(WORKDAY(J9,1),"-")</f>
         <v>46084</v>
       </c>
       <c r="P9" s="20">
@@ -1866,7 +1872,7 @@
       </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="23">
-        <f t="shared" ref="R9:R17" si="4">O9</f>
+        <f t="shared" ref="R9:R19" si="4">O9</f>
         <v>46084</v>
       </c>
       <c r="S9" s="20">
@@ -1875,7 +1881,7 @@
       </c>
       <c r="T9" s="22"/>
       <c r="U9" s="20">
-        <f t="shared" ref="U9:U17" si="5">IFERROR(WORKDAY(S9,1),"-")</f>
+        <f t="shared" ref="U9:U19" si="5">IFERROR(WORKDAY(S9,1),"-")</f>
         <v>46091</v>
       </c>
       <c r="V9" s="20">
@@ -1888,7 +1894,7 @@
         <v>46084</v>
       </c>
       <c r="Y9" s="20">
-        <f t="shared" ref="Y9:Y17" si="6">IFERROR(WORKDAY(AA9,-1),"-")</f>
+        <f t="shared" ref="Y9:Y19" si="6">IFERROR(WORKDAY(AA9,-1),"-")</f>
         <v>46104</v>
       </c>
       <c r="Z9" s="22"/>
@@ -1897,25 +1903,25 @@
         <v>46105</v>
       </c>
       <c r="AB9" s="20">
-        <f t="shared" ref="AB9:AB17" si="7">IFERROR(WORKDAY(AD9,-1),"-")</f>
+        <f t="shared" ref="AB9:AB19" si="7">IFERROR(WORKDAY(AD9,-1),"-")</f>
         <v>46125</v>
       </c>
       <c r="AC9" s="22"/>
       <c r="AD9" s="23">
-        <f t="shared" ref="AD9:AD17" si="8">IFERROR(AE9 - $AE$2, "-")</f>
+        <f t="shared" ref="AD9:AD19" si="8">IFERROR(AE9 - $AE$2, "-")</f>
         <v>46126</v>
       </c>
       <c r="AE9" s="20">
-        <f t="shared" ref="AE9:AE17" si="9">IFERROR(AG9,"-")</f>
+        <f t="shared" ref="AE9:AE19" si="9">IFERROR(AG9,"-")</f>
         <v>46246</v>
       </c>
       <c r="AF9" s="22"/>
       <c r="AG9" s="23">
-        <f t="shared" ref="AG9:AG17" si="10">IFERROR(AH9 - $AH$2, "-")</f>
+        <f t="shared" ref="AG9:AG19" si="10">IFERROR(AH9 - $AH$2, "-")</f>
         <v>46246</v>
       </c>
       <c r="AH9" s="20">
-        <f t="shared" ref="AH9:AH17" si="11">IFERROR(WORKDAY(AJ9,45),"-")</f>
+        <f t="shared" ref="AH9:AH19" si="11">IFERROR(WORKDAY(AJ9,45),"-")</f>
         <v>46366</v>
       </c>
       <c r="AI9" s="22"/>
@@ -1924,12 +1930,12 @@
         <v>46303</v>
       </c>
       <c r="AK9" s="20">
-        <f t="shared" ref="AK9:AK17" si="12">IFERROR(WORKDAY(AM9,-1),"-")</f>
+        <f t="shared" ref="AK9:AK19" si="12">IFERROR(WORKDAY(AM9,-1),"-")</f>
         <v>46414</v>
       </c>
       <c r="AL9" s="22"/>
       <c r="AM9" s="23">
-        <f t="shared" ref="AM9:AM17" si="13">AP9</f>
+        <f t="shared" ref="AM9:AM19" si="13">AP9</f>
         <v>46415</v>
       </c>
       <c r="AN9" s="20">
@@ -1942,7 +1948,7 @@
         <v>46415</v>
       </c>
       <c r="AQ9" s="20">
-        <f t="shared" ref="AQ9:AQ17" si="14">IFERROR(WORKDAY(AS9,-1),"-")</f>
+        <f t="shared" ref="AQ9:AQ19" si="14">IFERROR(WORKDAY(AS9,-1),"-")</f>
         <v>46513</v>
       </c>
       <c r="AR9" s="22"/>
@@ -1951,7 +1957,7 @@
         <v>46514</v>
       </c>
       <c r="AT9" s="20">
-        <f t="shared" ref="AT9:AT17" si="15">IFERROR(WORKDAY(AV9,-1),"-")</f>
+        <f t="shared" ref="AT9:AT19" si="15">IFERROR(WORKDAY(AV9,-1),"-")</f>
         <v>46520</v>
       </c>
       <c r="AU9" s="22"/>
@@ -1960,12 +1966,12 @@
         <v>46521</v>
       </c>
       <c r="AW9" s="20">
-        <f t="shared" ref="AW9:AW17" si="16">IFERROR(WORKDAY(AY9,-1),"-")</f>
+        <f t="shared" ref="AW9:AW19" si="16">IFERROR(WORKDAY(AY9,-1),"-")</f>
         <v>46573</v>
       </c>
       <c r="AX9" s="22"/>
       <c r="AY9" s="23">
-        <f t="shared" ref="AY9:AY17" si="17">BB9</f>
+        <f t="shared" ref="AY9:AY19" si="17">BB9</f>
         <v>46574</v>
       </c>
       <c r="AZ9" s="20">
@@ -1978,7 +1984,7 @@
         <v>46574</v>
       </c>
       <c r="BC9" s="20">
-        <f t="shared" ref="BC9:BC17" si="18">IFERROR(WORKDAY(BE9,-1),"-")</f>
+        <f t="shared" ref="BC9:BC19" si="18">IFERROR(WORKDAY(BE9,-1),"-")</f>
         <v>46615</v>
       </c>
       <c r="BD9" s="22"/>
@@ -3237,164 +3243,166 @@
       <c r="E17" s="15">
         <v>0</v>
       </c>
-      <c r="F17" s="20" t="str">
-        <f>IFERROR(WORKDAY.INTL(G17,(-$G$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G17" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="F17" s="20">
+        <f>IFERROR(WORKDAY.INTL(G17,(-$G$2+1),,Feriados!A10:A16),"-")</f>
+        <v>45887</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" ref="G17:G18" si="19">IFERROR(WORKDAY(I17,-1),"-")</f>
+        <v>45940</v>
       </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(J17,(-$J$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J17" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="I17" s="23">
+        <f>IFERROR(WORKDAY.INTL(J17,(-$J$2+1),,Feriados!A10:A16),"-")</f>
+        <v>45943</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" ref="J17:J18" si="20">IFERROR(WORKDAY(X17,-1),"-")</f>
+        <v>46024</v>
       </c>
       <c r="K17" s="22"/>
-      <c r="L17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(M17,(-$M$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M17" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L17" s="23">
+        <f>IFERROR(WORKDAY.INTL(M17,(-$M$2+1),,Feriados!A10:A16),"-")</f>
+        <v>45943</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" ref="M17:M18" si="21">IFERROR(WORKDAY(X17,-1),"-")</f>
+        <v>46024</v>
       </c>
       <c r="N17" s="22"/>
-      <c r="O17" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P17" s="20" t="str">
-        <f>IFERROR(WORKDAY.INTL(O17,($P$2-1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
+      <c r="O17" s="20">
+        <f t="shared" ref="O17:O18" si="22">IFERROR(WORKDAY(J17,1),"-")</f>
+        <v>46027</v>
+      </c>
+      <c r="P17" s="20">
+        <f>IFERROR(WORKDAY.INTL(O17,($P$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46031</v>
       </c>
       <c r="Q17" s="22"/>
-      <c r="R17" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="S17" s="20" t="str">
-        <f>IFERROR(WORKDAY.INTL(R17,($P$2-1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
+      <c r="R17" s="23">
+        <f t="shared" ref="R17:R18" si="23">O17</f>
+        <v>46027</v>
+      </c>
+      <c r="S17" s="20">
+        <f>IFERROR(WORKDAY.INTL(R17,($P$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46031</v>
       </c>
       <c r="T17" s="22"/>
-      <c r="U17" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="V17" s="20" t="str">
-        <f>IFERROR(WORKDAY.INTL(U17,($V$2-1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
+      <c r="U17" s="20">
+        <f t="shared" ref="U17:U18" si="24">IFERROR(WORKDAY(S17,1),"-")</f>
+        <v>46034</v>
+      </c>
+      <c r="V17" s="20">
+        <f>IFERROR(WORKDAY.INTL(U17,($V$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46226</v>
       </c>
       <c r="W17" s="22"/>
-      <c r="X17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(Y17,(-$Y$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="Y17" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="X17" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y17,(-$Y$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46027</v>
+      </c>
+      <c r="Y17" s="20">
+        <f t="shared" ref="Y17:Y18" si="25">IFERROR(WORKDAY(AA17,-1),"-")</f>
+        <v>46045</v>
       </c>
       <c r="Z17" s="22"/>
-      <c r="AA17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(AD17,(-$AB$2),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AB17" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="AA17" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD17,(-$AB$2),,Feriados!A10:A16),"-")</f>
+        <v>46048</v>
+      </c>
+      <c r="AB17" s="20">
+        <f t="shared" ref="AB17:AB18" si="26">IFERROR(WORKDAY(AD17,-1),"-")</f>
+        <v>46066</v>
       </c>
       <c r="AC17" s="22"/>
-      <c r="AD17" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="AE17" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="AD17" s="23">
+        <f t="shared" ref="AD17:AD18" si="27">IFERROR(AE17 - $AE$2, "-")</f>
+        <v>46067</v>
+      </c>
+      <c r="AE17" s="20">
+        <f t="shared" ref="AE17:AE18" si="28">IFERROR(AG17,"-")</f>
+        <v>46187</v>
       </c>
       <c r="AF17" s="22"/>
-      <c r="AG17" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
-      <c r="AH17" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="AG17" s="23">
+        <f t="shared" ref="AG17:AG18" si="29">IFERROR(AH17 - $AH$2, "-")</f>
+        <v>46187</v>
+      </c>
+      <c r="AH17" s="20">
+        <f t="shared" ref="AH17:AH18" si="30">IFERROR(WORKDAY(AJ17,45),"-")</f>
+        <v>46307</v>
       </c>
       <c r="AI17" s="22"/>
-      <c r="AJ17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(AK17,(-$AK$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AK17" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="AJ17" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK17,(-$AK$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46244</v>
+      </c>
+      <c r="AK17" s="20">
+        <f t="shared" ref="AK17:AK18" si="31">IFERROR(WORKDAY(AM17,-1),"-")</f>
+        <v>46353</v>
       </c>
       <c r="AL17" s="22"/>
-      <c r="AM17" s="23" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="AN17" s="20" t="str">
-        <f>IFERROR(WORKDAY.INTL(AM17,($AN$2-1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
+      <c r="AM17" s="23">
+        <f t="shared" ref="AM17:AM18" si="32">AP17</f>
+        <v>46356</v>
+      </c>
+      <c r="AN17" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM17,($AN$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46381</v>
       </c>
       <c r="AO17" s="22"/>
-      <c r="AP17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(AS17,(-$AQ$2),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AQ17" s="20" t="str">
-        <f t="shared" si="14"/>
-        <v>-</v>
+      <c r="AP17" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS17,(-$AQ$2),,Feriados!A10:A16),"-")</f>
+        <v>46356</v>
+      </c>
+      <c r="AQ17" s="20">
+        <f t="shared" ref="AQ17:AQ18" si="33">IFERROR(WORKDAY(AS17,-1),"-")</f>
+        <v>46454</v>
       </c>
       <c r="AR17" s="22"/>
-      <c r="AS17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(AV17,(-$AT$2),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AT17" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
+      <c r="AS17" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV17,(-$AT$2),,Feriados!A10:A16),"-")</f>
+        <v>46455</v>
+      </c>
+      <c r="AT17" s="20">
+        <f t="shared" ref="AT17:AT18" si="34">IFERROR(WORKDAY(AV17,-1),"-")</f>
+        <v>46461</v>
       </c>
       <c r="AU17" s="22"/>
-      <c r="AV17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(AW17,(-$AW$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AW17" s="20" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
+      <c r="AV17" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW17,(-$AW$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46462</v>
+      </c>
+      <c r="AW17" s="20">
+        <f t="shared" ref="AW17:AW18" si="35">IFERROR(WORKDAY(AY17,-1),"-")</f>
+        <v>46512</v>
       </c>
       <c r="AX17" s="22"/>
-      <c r="AY17" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="AZ17" s="20" t="str">
-        <f>IFERROR(WORKDAY.INTL(AY17,($AZ$2-1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
+      <c r="AY17" s="23">
+        <f t="shared" ref="AY17:AY18" si="36">BB17</f>
+        <v>46513</v>
+      </c>
+      <c r="AZ17" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY17,($AZ$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46526</v>
       </c>
       <c r="BA17" s="22"/>
-      <c r="BB17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(BC17,(-$BC$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="BC17" s="20" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
+      <c r="BB17" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC17,(-$BC$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46513</v>
+      </c>
+      <c r="BC17" s="20">
+        <f t="shared" ref="BC17:BC18" si="37">IFERROR(WORKDAY(BE17,-1),"-")</f>
+        <v>46554</v>
       </c>
       <c r="BD17" s="22"/>
-      <c r="BE17" s="23" t="str">
-        <f>IFERROR(WORKDAY.INTL(BF17,(-$BF$2+1),,Feriados!A11:A17),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="BF17" s="24"/>
+      <c r="BE17" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF17,(-$BF$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46555</v>
+      </c>
+      <c r="BF17" s="24">
+        <v>46568</v>
+      </c>
       <c r="BG17" s="15" t="str">
         <f>IFERROR(#REF!-#REF!,"-")</f>
         <v>-</v>
@@ -3405,182 +3413,528 @@
         <v>93</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="F18" s="20">
-        <f>IFERROR(WORKDAY.INTL(G18,(-$G$2+1),,Feriados!A12:A18),"-")</f>
-        <v>45427</v>
+        <f>IFERROR(WORKDAY.INTL(G18,(-$G$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46434</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" ref="G18" si="19">IFERROR(WORKDAY(I18,-1),"-")</f>
-        <v>45482</v>
+        <f t="shared" si="19"/>
+        <v>46489</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
-        <f>IFERROR(WORKDAY.INTL(J18,(-$J$2+1),,Feriados!A12:A18),"-")</f>
-        <v>45483</v>
+        <f>IFERROR(WORKDAY.INTL(J18,(-$J$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46490</v>
       </c>
       <c r="J18" s="20">
-        <f t="shared" ref="J18" si="20">IFERROR(WORKDAY(X18,-1),"-")</f>
-        <v>45566</v>
+        <f t="shared" si="20"/>
+        <v>46573</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="23">
-        <f>IFERROR(WORKDAY.INTL(M18,(-$M$2+1),,Feriados!A12:A18),"-")</f>
-        <v>45483</v>
+        <f>IFERROR(WORKDAY.INTL(M18,(-$M$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46490</v>
       </c>
       <c r="M18" s="20">
-        <f t="shared" ref="M18" si="21">IFERROR(WORKDAY(X18,-1),"-")</f>
-        <v>45566</v>
+        <f t="shared" si="21"/>
+        <v>46573</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="20">
-        <f t="shared" ref="O18" si="22">IFERROR(WORKDAY(J18,1),"-")</f>
-        <v>45567</v>
+        <f t="shared" si="22"/>
+        <v>46574</v>
       </c>
       <c r="P18" s="20">
-        <f>IFERROR(WORKDAY.INTL(O18,($P$2-1),,Feriados!A12:A18),"-")</f>
-        <v>45573</v>
+        <f>IFERROR(WORKDAY.INTL(O18,($P$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46580</v>
       </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="23">
-        <f t="shared" ref="R18" si="23">O18</f>
-        <v>45567</v>
+        <f t="shared" si="23"/>
+        <v>46574</v>
       </c>
       <c r="S18" s="20">
-        <f>IFERROR(WORKDAY.INTL(R18,($P$2-1),,Feriados!A12:A18),"-")</f>
-        <v>45573</v>
+        <f>IFERROR(WORKDAY.INTL(R18,($P$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46580</v>
       </c>
       <c r="T18" s="22"/>
       <c r="U18" s="20">
-        <f t="shared" ref="U18" si="24">IFERROR(WORKDAY(S18,1),"-")</f>
-        <v>45574</v>
+        <f t="shared" si="24"/>
+        <v>46581</v>
       </c>
       <c r="V18" s="20">
-        <f>IFERROR(WORKDAY.INTL(U18,($V$2-1),,Feriados!A12:A18),"-")</f>
-        <v>45768</v>
+        <f>IFERROR(WORKDAY.INTL(U18,($V$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46773</v>
       </c>
       <c r="W18" s="22"/>
       <c r="X18" s="23">
-        <f>IFERROR(WORKDAY.INTL(Y18,(-$Y$2+1),,Feriados!A12:A18),"-")</f>
-        <v>45567</v>
+        <f>IFERROR(WORKDAY.INTL(Y18,(-$Y$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46574</v>
       </c>
       <c r="Y18" s="20">
-        <f t="shared" ref="Y18" si="25">IFERROR(WORKDAY(AA18,-1),"-")</f>
-        <v>45587</v>
+        <f t="shared" si="25"/>
+        <v>46594</v>
       </c>
       <c r="Z18" s="22"/>
       <c r="AA18" s="23">
-        <f>IFERROR(WORKDAY.INTL(AD18,(-$AB$2),,Feriados!A12:A18),"-")</f>
-        <v>45588</v>
+        <f>IFERROR(WORKDAY.INTL(AD18,(-$AB$2),,Feriados!A10:A16),"-")</f>
+        <v>46595</v>
       </c>
       <c r="AB18" s="20">
-        <f t="shared" ref="AB18" si="26">IFERROR(WORKDAY(AD18,-1),"-")</f>
-        <v>45608</v>
+        <f t="shared" si="26"/>
+        <v>46615</v>
       </c>
       <c r="AC18" s="22"/>
       <c r="AD18" s="23">
-        <f t="shared" ref="AD18" si="27">IFERROR(AE18 - $AE$2, "-")</f>
-        <v>45609</v>
+        <f t="shared" si="27"/>
+        <v>46616</v>
       </c>
       <c r="AE18" s="20">
-        <f t="shared" ref="AE18" si="28">IFERROR(AG18,"-")</f>
-        <v>45729</v>
+        <f t="shared" si="28"/>
+        <v>46736</v>
       </c>
       <c r="AF18" s="22"/>
       <c r="AG18" s="23">
-        <f t="shared" ref="AG18" si="29">IFERROR(AH18 - $AH$2, "-")</f>
-        <v>45729</v>
+        <f t="shared" si="29"/>
+        <v>46736</v>
       </c>
       <c r="AH18" s="20">
-        <f t="shared" ref="AH18" si="30">IFERROR(WORKDAY(AJ18,45),"-")</f>
-        <v>45849</v>
+        <f t="shared" si="30"/>
+        <v>46856</v>
       </c>
       <c r="AI18" s="22"/>
       <c r="AJ18" s="23">
-        <f>IFERROR(WORKDAY.INTL(AK18,(-$AK$2+1),,Feriados!A12:A18),"-")</f>
-        <v>45786</v>
+        <f>IFERROR(WORKDAY.INTL(AK18,(-$AK$2+1),,Feriados!A10:A16),"-")</f>
+        <v>46793</v>
       </c>
       <c r="AK18" s="20">
-        <f t="shared" ref="AK18" si="31">IFERROR(WORKDAY(AM18,-1),"-")</f>
-        <v>45897</v>
+        <f t="shared" si="31"/>
+        <v>46904</v>
       </c>
       <c r="AL18" s="22"/>
       <c r="AM18" s="23">
-        <f t="shared" ref="AM18" si="32">AP18</f>
-        <v>45898</v>
+        <f t="shared" si="32"/>
+        <v>46905</v>
       </c>
       <c r="AN18" s="20">
-        <f>IFERROR(WORKDAY.INTL(AM18,($AN$2-1),,Feriados!A12:A18),"-")</f>
-        <v>45925</v>
+        <f>IFERROR(WORKDAY.INTL(AM18,($AN$2-1),,Feriados!A10:A16),"-")</f>
+        <v>46932</v>
       </c>
       <c r="AO18" s="22"/>
       <c r="AP18" s="23">
-        <f>IFERROR(WORKDAY.INTL(AS18,(-$AQ$2),,Feriados!A12:A18),"-")</f>
-        <v>45898</v>
+        <f>IFERROR(WORKDAY.INTL(AS18,(-$AQ$2),,Feriados!A10:A16),"-")</f>
+        <v>46905</v>
       </c>
       <c r="AQ18" s="20">
-        <f t="shared" ref="AQ18" si="33">IFERROR(WORKDAY(AS18,-1),"-")</f>
-        <v>45996</v>
+        <f t="shared" si="33"/>
+        <v>47003</v>
       </c>
       <c r="AR18" s="22"/>
       <c r="AS18" s="23">
-        <f>IFERROR(WORKDAY.INTL(AV18,(-$AT$2),,Feriados!A12:A18),"-")</f>
-        <v>45999</v>
+        <f>IFERROR(WORKDAY.INTL(AV18,(-$AT$2),,Feriados!A10:A16),"-")</f>
+        <v>47004</v>
       </c>
       <c r="AT18" s="20">
-        <f t="shared" ref="AT18" si="34">IFERROR(WORKDAY(AV18,-1),"-")</f>
-        <v>46003</v>
+        <f t="shared" si="34"/>
+        <v>47010</v>
       </c>
       <c r="AU18" s="22"/>
       <c r="AV18" s="23">
-        <f>IFERROR(WORKDAY.INTL(AW18,(-$AW$2+1),,Feriados!A12:A18),"-")</f>
-        <v>46006</v>
+        <f>IFERROR(WORKDAY.INTL(AW18,(-$AW$2+1),,Feriados!A10:A16),"-")</f>
+        <v>47011</v>
       </c>
       <c r="AW18" s="20">
-        <f t="shared" ref="AW18" si="35">IFERROR(WORKDAY(AY18,-1),"-")</f>
-        <v>46056</v>
+        <f t="shared" si="35"/>
+        <v>47063</v>
       </c>
       <c r="AX18" s="22"/>
       <c r="AY18" s="23">
-        <f t="shared" ref="AY18" si="36">BB18</f>
-        <v>46057</v>
+        <f t="shared" si="36"/>
+        <v>47064</v>
       </c>
       <c r="AZ18" s="20">
-        <f>IFERROR(WORKDAY.INTL(AY18,($AZ$2-1),,Feriados!A12:A18),"-")</f>
-        <v>46070</v>
+        <f>IFERROR(WORKDAY.INTL(AY18,($AZ$2-1),,Feriados!A10:A16),"-")</f>
+        <v>47077</v>
       </c>
       <c r="BA18" s="22"/>
       <c r="BB18" s="23">
-        <f>IFERROR(WORKDAY.INTL(BC18,(-$BC$2+1),,Feriados!A12:A18),"-")</f>
-        <v>46057</v>
+        <f>IFERROR(WORKDAY.INTL(BC18,(-$BC$2+1),,Feriados!A10:A16),"-")</f>
+        <v>47064</v>
       </c>
       <c r="BC18" s="20">
-        <f t="shared" ref="BC18" si="37">IFERROR(WORKDAY(BE18,-1),"-")</f>
-        <v>46098</v>
+        <f t="shared" si="37"/>
+        <v>47105</v>
       </c>
       <c r="BD18" s="22"/>
       <c r="BE18" s="23">
-        <f>IFERROR(WORKDAY.INTL(BF18,(-$BF$2+1),,Feriados!A12:A18),"-")</f>
+        <f>IFERROR(WORKDAY.INTL(BF18,(-$BF$2+1),,Feriados!A10:A16),"-")</f>
+        <v>47106</v>
+      </c>
+      <c r="BF18" s="24">
+        <v>47117</v>
+      </c>
+      <c r="BG18" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <f>IFERROR(WORKDAY.INTL(G19,(-$G$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46251</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
+        <v>46304</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23">
+        <f>IFERROR(WORKDAY.INTL(J19,(-$J$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46307</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>46388</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23">
+        <f>IFERROR(WORKDAY.INTL(M19,(-$M$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46307</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="2"/>
+        <v>46388</v>
+      </c>
+      <c r="N19" s="22"/>
+      <c r="O19" s="20">
+        <f t="shared" si="3"/>
+        <v>46391</v>
+      </c>
+      <c r="P19" s="20">
+        <f>IFERROR(WORKDAY.INTL(O19,($P$2-1),,Feriados!A11:A17),"-")</f>
+        <v>46395</v>
+      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23">
+        <f t="shared" si="4"/>
+        <v>46391</v>
+      </c>
+      <c r="S19" s="20">
+        <f>IFERROR(WORKDAY.INTL(R19,($P$2-1),,Feriados!A11:A17),"-")</f>
+        <v>46395</v>
+      </c>
+      <c r="T19" s="22"/>
+      <c r="U19" s="20">
+        <f t="shared" si="5"/>
+        <v>46398</v>
+      </c>
+      <c r="V19" s="20">
+        <f>IFERROR(WORKDAY.INTL(U19,($V$2-1),,Feriados!A11:A17),"-")</f>
+        <v>46590</v>
+      </c>
+      <c r="W19" s="22"/>
+      <c r="X19" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y19,(-$Y$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46391</v>
+      </c>
+      <c r="Y19" s="20">
+        <f t="shared" si="6"/>
+        <v>46409</v>
+      </c>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD19,(-$AB$2),,Feriados!A11:A17),"-")</f>
+        <v>46412</v>
+      </c>
+      <c r="AB19" s="20">
+        <f t="shared" si="7"/>
+        <v>46430</v>
+      </c>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="23">
+        <f t="shared" si="8"/>
+        <v>46433</v>
+      </c>
+      <c r="AE19" s="20">
+        <f t="shared" si="9"/>
+        <v>46553</v>
+      </c>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="23">
+        <f t="shared" si="10"/>
+        <v>46553</v>
+      </c>
+      <c r="AH19" s="20">
+        <f t="shared" si="11"/>
+        <v>46673</v>
+      </c>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK19,(-$AK$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46610</v>
+      </c>
+      <c r="AK19" s="20">
+        <f t="shared" si="12"/>
+        <v>46721</v>
+      </c>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="23">
+        <f t="shared" si="13"/>
+        <v>46722</v>
+      </c>
+      <c r="AN19" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM19,($AN$2-1),,Feriados!A11:A17),"-")</f>
+        <v>46749</v>
+      </c>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS19,(-$AQ$2),,Feriados!A11:A17),"-")</f>
+        <v>46722</v>
+      </c>
+      <c r="AQ19" s="20">
+        <f t="shared" si="14"/>
+        <v>46820</v>
+      </c>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV19,(-$AT$2),,Feriados!A11:A17),"-")</f>
+        <v>46821</v>
+      </c>
+      <c r="AT19" s="20">
+        <f t="shared" si="15"/>
+        <v>46827</v>
+      </c>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW19,(-$AW$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46828</v>
+      </c>
+      <c r="AW19" s="20">
+        <f t="shared" si="16"/>
+        <v>46878</v>
+      </c>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="23">
+        <f t="shared" si="17"/>
+        <v>46881</v>
+      </c>
+      <c r="AZ19" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY19,($AZ$2-1),,Feriados!A11:A17),"-")</f>
+        <v>46892</v>
+      </c>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC19,(-$BC$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46881</v>
+      </c>
+      <c r="BC19" s="20">
+        <f t="shared" si="18"/>
+        <v>46920</v>
+      </c>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF19,(-$BF$2+1),,Feriados!A11:A17),"-")</f>
+        <v>46923</v>
+      </c>
+      <c r="BF19" s="24">
+        <v>46934</v>
+      </c>
+      <c r="BG19" s="15" t="str">
+        <f>IFERROR(#REF!-#REF!,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <f>IFERROR(WORKDAY.INTL(G20,(-$G$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45427</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" ref="G20" si="38">IFERROR(WORKDAY(I20,-1),"-")</f>
+        <v>45482</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23">
+        <f>IFERROR(WORKDAY.INTL(J20,(-$J$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45483</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" ref="J20" si="39">IFERROR(WORKDAY(X20,-1),"-")</f>
+        <v>45566</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23">
+        <f>IFERROR(WORKDAY.INTL(M20,(-$M$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45483</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" ref="M20" si="40">IFERROR(WORKDAY(X20,-1),"-")</f>
+        <v>45566</v>
+      </c>
+      <c r="N20" s="22"/>
+      <c r="O20" s="20">
+        <f t="shared" ref="O20" si="41">IFERROR(WORKDAY(J20,1),"-")</f>
+        <v>45567</v>
+      </c>
+      <c r="P20" s="20">
+        <f>IFERROR(WORKDAY.INTL(O20,($P$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45573</v>
+      </c>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23">
+        <f t="shared" ref="R20" si="42">O20</f>
+        <v>45567</v>
+      </c>
+      <c r="S20" s="20">
+        <f>IFERROR(WORKDAY.INTL(R20,($P$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45573</v>
+      </c>
+      <c r="T20" s="22"/>
+      <c r="U20" s="20">
+        <f t="shared" ref="U20" si="43">IFERROR(WORKDAY(S20,1),"-")</f>
+        <v>45574</v>
+      </c>
+      <c r="V20" s="20">
+        <f>IFERROR(WORKDAY.INTL(U20,($V$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45768</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="23">
+        <f>IFERROR(WORKDAY.INTL(Y20,(-$Y$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45567</v>
+      </c>
+      <c r="Y20" s="20">
+        <f t="shared" ref="Y20" si="44">IFERROR(WORKDAY(AA20,-1),"-")</f>
+        <v>45587</v>
+      </c>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="23">
+        <f>IFERROR(WORKDAY.INTL(AD20,(-$AB$2),,Feriados!A12:A18),"-")</f>
+        <v>45588</v>
+      </c>
+      <c r="AB20" s="20">
+        <f t="shared" ref="AB20" si="45">IFERROR(WORKDAY(AD20,-1),"-")</f>
+        <v>45608</v>
+      </c>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="23">
+        <f t="shared" ref="AD20" si="46">IFERROR(AE20 - $AE$2, "-")</f>
+        <v>45609</v>
+      </c>
+      <c r="AE20" s="20">
+        <f t="shared" ref="AE20" si="47">IFERROR(AG20,"-")</f>
+        <v>45729</v>
+      </c>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="23">
+        <f t="shared" ref="AG20" si="48">IFERROR(AH20 - $AH$2, "-")</f>
+        <v>45729</v>
+      </c>
+      <c r="AH20" s="20">
+        <f t="shared" ref="AH20" si="49">IFERROR(WORKDAY(AJ20,45),"-")</f>
+        <v>45849</v>
+      </c>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="23">
+        <f>IFERROR(WORKDAY.INTL(AK20,(-$AK$2+1),,Feriados!A12:A18),"-")</f>
+        <v>45786</v>
+      </c>
+      <c r="AK20" s="20">
+        <f t="shared" ref="AK20" si="50">IFERROR(WORKDAY(AM20,-1),"-")</f>
+        <v>45897</v>
+      </c>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="23">
+        <f t="shared" ref="AM20" si="51">AP20</f>
+        <v>45898</v>
+      </c>
+      <c r="AN20" s="20">
+        <f>IFERROR(WORKDAY.INTL(AM20,($AN$2-1),,Feriados!A12:A18),"-")</f>
+        <v>45925</v>
+      </c>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="23">
+        <f>IFERROR(WORKDAY.INTL(AS20,(-$AQ$2),,Feriados!A12:A18),"-")</f>
+        <v>45898</v>
+      </c>
+      <c r="AQ20" s="20">
+        <f t="shared" ref="AQ20" si="52">IFERROR(WORKDAY(AS20,-1),"-")</f>
+        <v>45996</v>
+      </c>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="23">
+        <f>IFERROR(WORKDAY.INTL(AV20,(-$AT$2),,Feriados!A12:A18),"-")</f>
+        <v>45999</v>
+      </c>
+      <c r="AT20" s="20">
+        <f t="shared" ref="AT20" si="53">IFERROR(WORKDAY(AV20,-1),"-")</f>
+        <v>46003</v>
+      </c>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="23">
+        <f>IFERROR(WORKDAY.INTL(AW20,(-$AW$2+1),,Feriados!A12:A18),"-")</f>
+        <v>46006</v>
+      </c>
+      <c r="AW20" s="20">
+        <f t="shared" ref="AW20" si="54">IFERROR(WORKDAY(AY20,-1),"-")</f>
+        <v>46056</v>
+      </c>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="23">
+        <f t="shared" ref="AY20" si="55">BB20</f>
+        <v>46057</v>
+      </c>
+      <c r="AZ20" s="20">
+        <f>IFERROR(WORKDAY.INTL(AY20,($AZ$2-1),,Feriados!A12:A18),"-")</f>
+        <v>46070</v>
+      </c>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="23">
+        <f>IFERROR(WORKDAY.INTL(BC20,(-$BC$2+1),,Feriados!A12:A18),"-")</f>
+        <v>46057</v>
+      </c>
+      <c r="BC20" s="20">
+        <f t="shared" ref="BC20" si="56">IFERROR(WORKDAY(BE20,-1),"-")</f>
+        <v>46098</v>
+      </c>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="23">
+        <f>IFERROR(WORKDAY.INTL(BF20,(-$BF$2+1),,Feriados!A12:A18),"-")</f>
         <v>46099</v>
       </c>
-      <c r="BF18" s="24">
+      <c r="BF20" s="24">
         <v>46112</v>
       </c>
-      <c r="BG18" s="15"/>
+      <c r="BG20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="BE3:BF3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="U3:V3"/>
@@ -3594,9 +3948,15 @@
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="BG8:BG18">
+  <conditionalFormatting sqref="BG8:BG20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
